--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:32:30+00:00</t>
+    <t>2022-11-16T21:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$44</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,17 +299,197 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Group.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Group.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {firstCreated}
+</t>
+  </si>
+  <si>
+    <t>The instant when this resource ID was first associated with content on this server</t>
+  </si>
+  <si>
+    <t>Indicates when this resource ID was first associated with content on this server.</t>
+  </si>
+  <si>
+    <t>Group.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Group.implicitRules</t>
+    <t>Group.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://build.fhir.org/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Group.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://build.fhir.org/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>The exact use of the source (and the possible implied Provenance.entity.role and agent.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. The source may correspond to Provenance.entity.what[x] or Provenance.agent.who[x], though it may be a more general or abstract reference. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Group.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://build.fhir.org/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://build.fhir.org/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Group.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Group.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Group.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -402,28 +585,13 @@
     <t>Group.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>ARMGroupAttExt</t>
@@ -442,18 +610,11 @@
     <t>Group.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
@@ -581,9 +742,6 @@
     <t>This would generally be omitted for Person resources.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Kind of particular resource; e.g. cow, syringe, lake, etc.</t>
   </si>
   <si>
@@ -691,28 +849,7 @@
     <t>Group.characteristic.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Group.characteristic.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Group.characteristic.modifierExtension</t>
@@ -996,6 +1133,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1156,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1192,7 +1344,7 @@
     <col min="25" max="25" width="60.25" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1321,7 +1473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1429,7 +1581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1537,7 +1689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1631,21 +1783,21 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1662,23 +1814,21 @@
         <v>71</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>71</v>
@@ -1727,7 +1877,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1739,10 +1889,10 @@
         <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>71</v>
@@ -1751,20 +1901,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1776,16 +1926,16 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1811,46 +1961,46 @@
         <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>71</v>
@@ -1861,11 +2011,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1875,7 +2027,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1884,17 +2036,15 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>71</v>
@@ -1943,22 +2093,22 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>71</v>
@@ -1967,20 +2117,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1989,19 +2139,19 @@
         <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2051,22 +2201,22 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>71</v>
@@ -2077,7 +2227,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2088,27 +2238,29 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>71</v>
@@ -2145,29 +2297,31 @@
         <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2179,13 +2333,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>71</v>
       </c>
@@ -2203,18 +2355,20 @@
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>71</v>
@@ -2263,37 +2417,37 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2306,26 +2460,24 @@
         <v>71</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>71</v>
       </c>
@@ -2373,7 +2525,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2385,10 +2537,10 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>71</v>
@@ -2397,9 +2549,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2422,18 +2574,18 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2457,13 +2609,11 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>71</v>
@@ -2493,21 +2643,21 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2518,7 +2668,7 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2530,24 +2680,22 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>71</v>
       </c>
@@ -2567,13 +2715,11 @@
         <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>71</v>
@@ -2591,33 +2737,33 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2625,7 +2771,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
@@ -2634,26 +2780,24 @@
         <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>71</v>
       </c>
@@ -2677,13 +2821,13 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2701,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -2713,21 +2857,21 @@
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2735,7 +2879,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -2747,21 +2891,21 @@
         <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>71</v>
       </c>
@@ -2785,61 +2929,61 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2855,19 +2999,19 @@
         <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2893,10 +3037,10 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>71</v>
@@ -2917,7 +3061,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2929,32 +3073,32 @@
         <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2963,21 +3107,21 @@
         <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3025,33 +3169,33 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3062,7 +3206,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -3074,13 +3218,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3119,31 +3263,29 @@
         <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
@@ -3155,11 +3297,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3177,23 +3321,19 @@
         <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3241,22 +3381,22 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>71</v>
@@ -3265,43 +3405,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>71</v>
       </c>
@@ -3349,22 +3491,22 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
@@ -3373,9 +3515,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3398,19 +3540,17 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3459,7 +3599,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3471,21 +3611,21 @@
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>71</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3505,23 +3645,27 @@
         <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q22" t="s" s="2">
         <v>71</v>
       </c>
@@ -3565,7 +3709,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3577,32 +3721,32 @@
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3611,21 +3755,23 @@
         <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>71</v>
       </c>
@@ -3649,13 +3795,13 @@
         <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>71</v>
@@ -3673,19 +3819,19 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>220</v>
@@ -3694,47 +3840,45 @@
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>71</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -3759,13 +3903,13 @@
         <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>71</v>
@@ -3783,22 +3927,22 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
@@ -3807,9 +3951,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3817,7 +3961,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>81</v>
@@ -3832,18 +3976,18 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -3867,57 +4011,57 @@
         <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3925,7 +4069,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>81</v>
@@ -3940,17 +4084,15 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M26" t="s" s="2">
         <v>239</v>
       </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
         <v>240</v>
       </c>
@@ -3977,55 +4119,55 @@
         <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AL26" t="s" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>243</v>
       </c>
@@ -4035,7 +4177,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>81</v>
@@ -4047,23 +4189,19 @@
         <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
       </c>
@@ -4114,7 +4252,7 @@
         <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4123,10 +4261,10 @@
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -4135,9 +4273,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4157,19 +4295,23 @@
         <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4217,7 +4359,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4229,10 +4371,10 @@
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4241,9 +4383,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4254,7 +4396,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -4263,21 +4405,21 @@
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4325,22 +4467,22 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
@@ -4349,9 +4491,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4362,7 +4504,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4371,19 +4513,23 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4431,22 +4577,22 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
@@ -4455,20 +4601,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4480,17 +4626,15 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -4539,22 +4683,22 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
@@ -4563,13 +4707,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4582,26 +4726,24 @@
         <v>71</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4649,7 +4791,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4661,10 +4803,10 @@
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
@@ -4673,41 +4815,45 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4755,22 +4901,22 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
@@ -4779,9 +4925,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4789,7 +4935,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>81</v>
@@ -4801,27 +4947,25 @@
         <v>71</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>71</v>
       </c>
@@ -4841,10 +4985,10 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>71</v>
@@ -4865,10 +5009,10 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -4877,10 +5021,10 @@
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -4889,9 +5033,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4899,7 +5043,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>81</v>
@@ -4911,95 +5055,1087 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Q44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL44">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -585,26 +585,10 @@
     <t>Group.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ARMGroupAttExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/arm-group-att-ext}
-</t>
-  </si>
-  <si>
-    <t>ARMGroup</t>
-  </si>
-  <si>
-    <t>ARM Group attribute extensions</t>
   </si>
   <si>
     <t>Group.modifierExtension</t>
@@ -1308,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1318,7 +1302,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3199,7 +3183,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3221,12 +3205,14 @@
         <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3263,17 +3249,19 @@
         <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3288,7 +3276,7 @@
         <v>108</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -3299,41 +3287,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
       </c>
@@ -3381,7 +3371,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3396,7 +3386,7 @@
         <v>108</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>71</v>
@@ -3411,7 +3401,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3424,25 +3414,23 @@
         <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -3491,7 +3479,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3503,21 +3491,21 @@
         <v>71</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3528,7 +3516,7 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
@@ -3540,22 +3528,24 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>71</v>
       </c>
@@ -3599,13 +3589,13 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
@@ -3614,18 +3604,18 @@
         <v>118</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3633,7 +3623,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -3648,71 +3638,71 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -3724,18 +3714,18 @@
         <v>118</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3761,16 +3751,14 @@
         <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -3795,31 +3783,31 @@
         <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>81</v>
@@ -3834,18 +3822,18 @@
         <v>118</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3853,7 +3841,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>81</v>
@@ -3868,18 +3856,18 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3903,13 +3891,13 @@
         <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>71</v>
@@ -3927,10 +3915,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -3942,18 +3930,18 @@
         <v>118</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>71</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3976,18 +3964,18 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -4011,10 +3999,10 @@
         <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>71</v>
@@ -4035,7 +4023,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4050,18 +4038,18 @@
         <v>118</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4081,21 +4069,19 @@
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4143,7 +4129,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4158,10 +4144,10 @@
         <v>118</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>71</v>
@@ -4169,7 +4155,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4189,19 +4175,23 @@
         <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>71</v>
       </c>
@@ -4249,7 +4239,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4264,7 +4254,7 @@
         <v>118</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -4275,7 +4265,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4298,20 +4288,18 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4359,7 +4347,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4374,7 +4362,7 @@
         <v>118</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4396,7 +4384,7 @@
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -4419,7 +4407,9 @@
       <c r="M29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4473,7 +4463,7 @@
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
@@ -4482,7 +4472,7 @@
         <v>118</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
@@ -4493,7 +4483,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4504,7 +4494,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4513,23 +4503,19 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4577,22 +4563,22 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
@@ -4603,18 +4589,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>71</v>
@@ -4626,15 +4612,17 @@
         <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -4683,19 +4671,19 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
@@ -4709,11 +4697,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4726,24 +4714,26 @@
         <v>71</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4791,7 +4781,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4806,7 +4796,7 @@
         <v>108</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
@@ -4821,38 +4811,36 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -4877,10 +4865,10 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="Y33" t="s" s="2">
         <v>71</v>
@@ -4901,22 +4889,22 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
@@ -4950,17 +4938,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>71</v>
@@ -4988,7 +4978,7 @@
         <v>149</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>71</v>
@@ -5024,7 +5014,7 @@
         <v>118</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -5035,7 +5025,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5058,19 +5048,19 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -5095,10 +5085,10 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>71</v>
@@ -5119,7 +5109,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>81</v>
@@ -5134,7 +5124,7 @@
         <v>118</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -5145,7 +5135,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5153,7 +5143,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>81</v>
@@ -5165,23 +5155,19 @@
         <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>290</v>
       </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>71</v>
       </c>
@@ -5229,10 +5215,10 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5244,7 +5230,7 @@
         <v>118</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5255,7 +5241,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5266,7 +5252,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -5278,16 +5264,18 @@
         <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>71</v>
       </c>
@@ -5335,13 +5323,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -5350,7 +5338,7 @@
         <v>118</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5372,7 +5360,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -5384,18 +5372,16 @@
         <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
       </c>
@@ -5443,22 +5429,22 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5469,18 +5455,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -5492,15 +5478,17 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>237</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -5549,19 +5537,19 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>97</v>
@@ -5575,11 +5563,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5592,24 +5580,26 @@
         <v>71</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>71</v>
       </c>
@@ -5657,7 +5647,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5672,7 +5662,7 @@
         <v>108</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5683,43 +5673,39 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>71</v>
       </c>
@@ -5767,22 +5753,22 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
@@ -5793,7 +5779,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5801,7 +5787,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>81</v>
@@ -5816,20 +5802,24 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>71</v>
       </c>
@@ -5873,10 +5863,10 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -5922,7 +5912,7 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>309</v>
@@ -6007,118 +5997,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Q44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL44">
+  <autoFilter ref="A1:AL43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6128,7 +6008,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-arm-group-profile.xlsx
+++ b/StructureDefinition-arm-group-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
